--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1183555.190639792</v>
+        <v>1268922.496673052</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673266</v>
+        <v>4171427.157673265</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>116.9725659584294</v>
       </c>
       <c r="X2" t="n">
-        <v>130.9356567043873</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>26.00801315183521</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>160.7004989030062</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>148.2969018560924</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>36.81447406677684</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>235.3746739803097</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>308.5370958323769</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539848</v>
+        <v>94.01296546539882</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>51.37326572970127</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>13.00695187870434</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253649</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.7470356681336</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
         <v>193.6498268080145</v>
@@ -1038,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3631989961622</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>80.07895760410004</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
         <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>31.25334704479856</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>71.03267489408145</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>101.7048361174857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>88.69466488731706</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>91.64702538008645</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>16.34825474388459</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863182</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492383</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>101.6599086699107</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>48.48304055307351</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492293</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>2.780673098473565</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>201.6622187863182</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>136.4341214532058</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>53.4522744295482</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482877</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>247.4877090572674</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -2132,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699175</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2318,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>167.1133262249476</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.651019870961397</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>60.10514086429199</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>129.6194020613848</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>328.4442783980554</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>106.5867442799596</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>250.3640278003698</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>235.9375844494523</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>253.0207069265287</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>179.0944876018796</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>238.1458344391891</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3244,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>64.51710610988546</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>100.9068926882547</v>
       </c>
       <c r="Y35" t="n">
-        <v>260.1478989722376</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>25.01141625626287</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>210.6180377869399</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>94.8127598026126</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>51.93360397349174</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3002560168313</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>108.9689743056526</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3746,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>375.1844348661915</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.2904874124723165</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175847409</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3955,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>70.01987889555252</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.246717585352807</v>
+        <v>315.9126292240467</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>54.41694663634564</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>120.4263234899697</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344767</v>
+        <v>670.32375641013</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344767</v>
+        <v>670.32375641013</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344767</v>
+        <v>670.32375641013</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344767</v>
+        <v>670.32375641013</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672986</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298174</v>
+        <v>936.701412977308</v>
       </c>
       <c r="X2" t="n">
-        <v>553.8524235344767</v>
+        <v>670.32375641013</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344767</v>
+        <v>670.32375641013</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>366.6704805141268</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C3" t="n">
-        <v>192.2174512329998</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>192.2174512329998</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>192.2174512329998</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>192.2174512329998</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>141.1068094710485</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>287.8512331313452</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>478.451922227869</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W3" t="n">
-        <v>782.2822794846136</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="X3" t="n">
-        <v>574.4307792790808</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="Y3" t="n">
-        <v>366.6704805141268</v>
+        <v>65.46256898749988</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2429270008668</v>
+        <v>373.8270975072483</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2429270008668</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2429270008668</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2429270008668</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2429270008668</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008668</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512193</v>
+        <v>776.2681414810181</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092336</v>
+        <v>776.2681414810181</v>
       </c>
       <c r="U4" t="n">
-        <v>227.4292644420556</v>
+        <v>776.2681414810181</v>
       </c>
       <c r="V4" t="n">
-        <v>190.2429270008668</v>
+        <v>776.2681414810181</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2429270008668</v>
+        <v>776.2681414810181</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2429270008668</v>
+        <v>776.2681414810181</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2429270008668</v>
+        <v>555.475562337488</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1094.680164851122</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="C5" t="n">
-        <v>1094.680164851122</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="D5" t="n">
-        <v>1094.680164851122</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="E5" t="n">
-        <v>1094.680164851122</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="F5" t="n">
-        <v>856.9279689114148</v>
+        <v>856.9279689114151</v>
       </c>
       <c r="G5" t="n">
-        <v>440.4816599244638</v>
+        <v>440.4816599244641</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705478</v>
+        <v>128.828027770548</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135744</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780285</v>
+        <v>108.4604468780274</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818706</v>
+        <v>270.9975490818682</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587374006</v>
+        <v>509.5409587373967</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176508</v>
+        <v>806.6359018176454</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058973</v>
+        <v>1113.151960058966</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836701</v>
+        <v>1389.251120836693</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921693</v>
+        <v>1590.394365921683</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567872</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567872</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567872</v>
+        <v>1641.379631962102</v>
       </c>
       <c r="T5" t="n">
-        <v>1481.280004915243</v>
+        <v>1641.379631962102</v>
       </c>
       <c r="U5" t="n">
-        <v>1481.280004915243</v>
+        <v>1641.379631962102</v>
       </c>
       <c r="V5" t="n">
-        <v>1481.280004915243</v>
+        <v>1641.379631962102</v>
       </c>
       <c r="W5" t="n">
-        <v>1481.280004915243</v>
+        <v>1641.379631962102</v>
       </c>
       <c r="X5" t="n">
-        <v>1481.280004915243</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="Y5" t="n">
-        <v>1481.280004915243</v>
+        <v>1267.913873701023</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.1057726051455</v>
+        <v>221.4568009034987</v>
       </c>
       <c r="C6" t="n">
-        <v>302.6527433240185</v>
+        <v>47.00377162237172</v>
       </c>
       <c r="D6" t="n">
-        <v>302.6527433240185</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="E6" t="n">
-        <v>302.6527433240185</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240185</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5545638768828</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765401</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135744</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="J6" t="n">
-        <v>124.074231542736</v>
+        <v>59.47586665324411</v>
       </c>
       <c r="K6" t="n">
-        <v>246.0013607545416</v>
+        <v>181.402995865049</v>
       </c>
       <c r="L6" t="n">
-        <v>456.2699738772771</v>
+        <v>391.6716089877835</v>
       </c>
       <c r="M6" t="n">
-        <v>721.0003958340189</v>
+        <v>810.7563843308292</v>
       </c>
       <c r="N6" t="n">
-        <v>1007.146089245747</v>
+        <v>1096.902077742556</v>
       </c>
       <c r="O6" t="n">
-        <v>1246.693700419946</v>
+        <v>1336.449688916754</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.618711034415</v>
+        <v>1509.374699531222</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567872</v>
+        <v>1693.078019232575</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567872</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843117</v>
+        <v>1550.180157843107</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178456</v>
+        <v>1354.574272178445</v>
       </c>
       <c r="U6" t="n">
-        <v>1126.45806483394</v>
+        <v>1126.45806483393</v>
       </c>
       <c r="V6" t="n">
-        <v>891.3059566021977</v>
+        <v>891.3059566021871</v>
       </c>
       <c r="W6" t="n">
-        <v>637.0685998739962</v>
+        <v>637.0685998739855</v>
       </c>
       <c r="X6" t="n">
-        <v>477.1057726051455</v>
+        <v>429.2170996684526</v>
       </c>
       <c r="Y6" t="n">
-        <v>477.1057726051455</v>
+        <v>221.4568009034987</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>561.2526632009689</v>
+        <v>202.8016193192641</v>
       </c>
       <c r="C7" t="n">
-        <v>480.3648272372315</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="D7" t="n">
-        <v>480.3648272372315</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="E7" t="n">
-        <v>332.4517336548383</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="F7" t="n">
-        <v>185.561786156928</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="G7" t="n">
-        <v>185.561786156928</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135744</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135744</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652223</v>
+        <v>36.28512133652175</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128603</v>
+        <v>170.0982437128594</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119595</v>
+        <v>396.8594047119581</v>
       </c>
       <c r="M7" t="n">
-        <v>646.336377819155</v>
+        <v>646.3363778191529</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361669</v>
+        <v>895.3159625361642</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021383</v>
+        <v>1109.272612021379</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580468</v>
+        <v>1268.828805580465</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397017</v>
+        <v>1178.322155933644</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397017</v>
+        <v>975.8964400230143</v>
       </c>
       <c r="T7" t="n">
-        <v>1071.46241238146</v>
+        <v>751.4966890074572</v>
       </c>
       <c r="U7" t="n">
-        <v>1071.46241238146</v>
+        <v>462.3602076362699</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.46241238146</v>
+        <v>462.3602076362699</v>
       </c>
       <c r="W7" t="n">
-        <v>782.045242344499</v>
+        <v>430.7911702172815</v>
       </c>
       <c r="X7" t="n">
-        <v>782.045242344499</v>
+        <v>202.8016193192641</v>
       </c>
       <c r="Y7" t="n">
-        <v>561.2526632009689</v>
+        <v>202.8016193192641</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2064.174362665546</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,16 +4804,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2459.607170705725</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2459.607170705725</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2106.838515435611</v>
       </c>
       <c r="X8" t="n">
-        <v>2064.174362665546</v>
+        <v>2106.838515435611</v>
       </c>
       <c r="Y8" t="n">
-        <v>2064.174362665546</v>
+        <v>1716.699183459799</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>458.7060632252736</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>903.4321187182926</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="C10" t="n">
-        <v>734.4959357903857</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="D10" t="n">
-        <v>584.37929637805</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E10" t="n">
-        <v>436.4662027956568</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F10" t="n">
-        <v>289.5762552977465</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4987,25 +4989,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1441.289960680901</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1218.311479875637</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.86271359008</v>
+        <v>929.1931423794746</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.86271359008</v>
+        <v>674.5086541735877</v>
       </c>
       <c r="W10" t="n">
-        <v>1533.86271359008</v>
+        <v>385.0914841366271</v>
       </c>
       <c r="X10" t="n">
-        <v>1305.873162692062</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="Y10" t="n">
-        <v>1085.080583548532</v>
+        <v>157.1019332386097</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5039,19 +5041,19 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939507</v>
@@ -5069,22 +5071,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.60582160917</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218339</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218339</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218339</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218339</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218339</v>
@@ -5200,13 +5202,13 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1252.833343223195</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C14" t="n">
-        <v>1150.146566788942</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D14" t="n">
-        <v>791.8808681821918</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E14" t="n">
-        <v>406.0926155839476</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5276,37 +5278,37 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U14" t="n">
         <v>2755.806928794323</v>
@@ -5315,13 +5317,13 @@
         <v>2755.806928794323</v>
       </c>
       <c r="W14" t="n">
-        <v>2403.038273524209</v>
+        <v>2706.834160558895</v>
       </c>
       <c r="X14" t="n">
-        <v>2029.572515263129</v>
+        <v>2706.834160558895</v>
       </c>
       <c r="Y14" t="n">
-        <v>1639.433183287317</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,13 +5372,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218339</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218339</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218339</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218339</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218339</v>
@@ -5440,46 +5442,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621287</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251681</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271508</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836207</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1281.167484680568</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>895.3792320823234</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>484.3933272927158</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>69.32087713771227</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5525,40 +5527,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W17" t="n">
-        <v>3121.906610713899</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>470.5862204338721</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C19" t="n">
-        <v>301.6500375059652</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>301.6500375059652</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>301.6500375059652</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>301.6500375059652</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>301.6500375059652</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621292</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W19" t="n">
-        <v>880.2242361621292</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X19" t="n">
-        <v>652.2346852641118</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y19" t="n">
-        <v>652.2346852641118</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1127.748203495403</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C20" t="n">
-        <v>1127.748203495403</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D20" t="n">
-        <v>769.482504888653</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>769.482504888653</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>358.4966000990455</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>358.4966000990455</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
@@ -5750,10 +5752,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,7 +5764,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5780,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>1514.348043559525</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5834,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2405.758056700423</v>
+        <v>2151.073568494536</v>
       </c>
       <c r="C22" t="n">
-        <v>2236.821873772516</v>
+        <v>1982.137385566629</v>
       </c>
       <c r="D22" t="n">
-        <v>2086.70523436018</v>
+        <v>1832.020746154294</v>
       </c>
       <c r="E22" t="n">
-        <v>1938.792140777787</v>
+        <v>1684.1076525719</v>
       </c>
       <c r="F22" t="n">
-        <v>1791.902193279877</v>
+        <v>1537.21770507399</v>
       </c>
       <c r="G22" t="n">
-        <v>1624.199356654596</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H22" t="n">
-        <v>1477.982169872454</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I22" t="n">
         <v>1464.823389952861</v>
@@ -5944,16 +5946,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="W22" t="n">
-        <v>3036.18865157221</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X22" t="n">
-        <v>2808.199100674193</v>
+        <v>2553.514612468306</v>
       </c>
       <c r="Y22" t="n">
-        <v>2587.406521530663</v>
+        <v>2332.722033324776</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1938.90602284268</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C23" t="n">
-        <v>1938.90602284268</v>
+        <v>663.0986074121181</v>
       </c>
       <c r="D23" t="n">
-        <v>1580.640324235929</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E23" t="n">
-        <v>1194.852071637685</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F23" t="n">
-        <v>783.8661668480777</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>368.7937166930741</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>71.21011630184137</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218339</v>
@@ -6014,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V23" t="n">
-        <v>2678.274518176916</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W23" t="n">
-        <v>2325.505862906802</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X23" t="n">
-        <v>2325.505862906802</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y23" t="n">
-        <v>2325.505862906802</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6071,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>443.0505103572855</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1143274293786</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1143274293786</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1143274293786</v>
+        <v>2022.959038039848</v>
       </c>
       <c r="F25" t="n">
-        <v>127.2243799314682</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="G25" t="n">
-        <v>127.2243799314682</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H25" t="n">
-        <v>127.2243799314682</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368016</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="V25" t="n">
-        <v>1134.908724368016</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="W25" t="n">
-        <v>845.4915543310553</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="X25" t="n">
-        <v>845.4915543310553</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y25" t="n">
-        <v>624.6989751875252</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2065.110222835251</v>
+        <v>1964.273285499502</v>
       </c>
       <c r="C26" t="n">
-        <v>1696.147705894839</v>
+        <v>1595.31076855909</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.882007288089</v>
+        <v>1237.04506995234</v>
       </c>
       <c r="E26" t="n">
-        <v>952.0937546898447</v>
+        <v>851.2568173540953</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>440.2709125644878</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
@@ -6251,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>3215.315153136265</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W26" t="n">
-        <v>3215.315153136265</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="X26" t="n">
-        <v>2841.849394875185</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="Y26" t="n">
-        <v>2451.710062899373</v>
+        <v>2350.873125563623</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218339</v>
@@ -6327,28 +6329,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1464.82338995286</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.82338995286</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.82338995286</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.82338995286</v>
+        <v>2022.959038039848</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.82338995286</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.82338995286</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.82338995286</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I28" t="n">
         <v>1464.82338995286</v>
@@ -6421,13 +6423,13 @@
         <v>2278.535509682807</v>
       </c>
       <c r="W28" t="n">
-        <v>1989.118339645846</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="X28" t="n">
-        <v>1761.128788747829</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="Y28" t="n">
-        <v>1540.336209604299</v>
+        <v>2170.872131622241</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1032.06112435253</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C29" t="n">
-        <v>663.0986074121181</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="D29" t="n">
-        <v>304.8329088053676</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E29" t="n">
-        <v>304.8329088053676</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F29" t="n">
-        <v>304.8329088053676</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>304.8329088053676</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267228</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923657</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653543</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X29" t="n">
-        <v>1808.800296392463</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y29" t="n">
-        <v>1418.660964416651</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6546,22 +6548,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.959038039848</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.959038039848</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.959038039848</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.959038039848</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>1876.069090541938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916657</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>2822.32286476305</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U31" t="n">
-        <v>2533.219997888693</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V31" t="n">
-        <v>2278.535509682807</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.959038039848</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.959038039848</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.959038039848</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2047.583838282732</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1402.455495256967</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>1044.189796650217</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>658.4015440519725</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>247.4156392623649</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
@@ -6728,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2768.786057602115</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2437.723170258544</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W32" t="n">
-        <v>2437.723170258544</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>2437.723170258544</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y32" t="n">
-        <v>2047.583838282732</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="33">
@@ -6798,7 +6800,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.823389952861</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.823389952861</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.823389952861</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.823389952861</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.823389952861</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I34" t="n">
         <v>1464.823389952861</v>
@@ -6880,28 +6882,28 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>3150.225125372326</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T34" t="n">
-        <v>2928.458509941852</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U34" t="n">
-        <v>2639.355643067496</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V34" t="n">
-        <v>2384.671154861609</v>
+        <v>2468.051203838305</v>
       </c>
       <c r="W34" t="n">
-        <v>2095.253984824648</v>
+        <v>2178.634033801344</v>
       </c>
       <c r="X34" t="n">
-        <v>1867.264433926631</v>
+        <v>1950.644482903327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1646.471854783101</v>
+        <v>1729.851903759797</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.5429342656</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W35" t="n">
-        <v>2994.5429342656</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X35" t="n">
-        <v>2994.5429342656</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y35" t="n">
-        <v>2731.767278738087</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064548</v>
@@ -7014,28 +7016,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.8928126690271</v>
+        <v>2392.59927678083</v>
       </c>
       <c r="C37" t="n">
-        <v>216.6287558445192</v>
+        <v>2223.663093852923</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218342</v>
+        <v>2073.546454440588</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>1925.633360858195</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658018</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408143</v>
+        <v>3023.029871652618</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427969</v>
+        <v>2795.0403207546</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.5412774992668</v>
+        <v>2574.24774161107</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2071.975386180637</v>
+        <v>1642.972675199007</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.010158258596</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>915.7444596518451</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>529.9562070536008</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>118.9703022639932</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329462</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520485</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450751</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180637</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X38" t="n">
-        <v>2071.975386180637</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y38" t="n">
-        <v>2071.975386180637</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>760.6631235951725</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C40" t="n">
-        <v>591.7269406672656</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D40" t="n">
-        <v>441.6103012549298</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E40" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F40" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7356,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U40" t="n">
-        <v>1645.778206672847</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1391.09371846696</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W40" t="n">
-        <v>1391.09371846696</v>
+        <v>1127.007895746701</v>
       </c>
       <c r="X40" t="n">
-        <v>1163.104167568942</v>
+        <v>899.0183448486839</v>
       </c>
       <c r="Y40" t="n">
-        <v>942.3115884254122</v>
+        <v>678.2257657051538</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1274.245689520978</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C41" t="n">
-        <v>905.2831725805665</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="D41" t="n">
-        <v>905.2831725805665</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="E41" t="n">
-        <v>519.4949199823222</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7424,37 +7426,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520486</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794322</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450751</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W41" t="n">
-        <v>2424.450619821991</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X41" t="n">
-        <v>2050.984861560912</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y41" t="n">
-        <v>1660.8455295851</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218338</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986302</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2173.075677452184</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="C43" t="n">
-        <v>2173.075677452184</v>
+        <v>72.9566297411202</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.959038039848</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.959038039848</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>1876.069090541938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>1708.366253916657</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399795</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396716</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102581</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022994</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456654</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609169</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>3044.089480193523</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>2822.322864763049</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U43" t="n">
-        <v>2533.219997888692</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>2462.492847489144</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>2173.075677452184</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X43" t="n">
-        <v>2173.075677452184</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y43" t="n">
-        <v>2173.075677452184</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2303.170539913434</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C44" t="n">
-        <v>1934.208022973022</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7661,37 +7663,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883005</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>3072.075344883005</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W44" t="n">
-        <v>3072.075344883005</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X44" t="n">
-        <v>2698.609586621925</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y44" t="n">
-        <v>2308.470254646114</v>
+        <v>1955.701599376</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218338</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>625.6709106036544</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C46" t="n">
-        <v>625.6709106036544</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D46" t="n">
-        <v>625.6709106036544</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E46" t="n">
-        <v>477.7578170212613</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959802</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218338</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1872.327935324506</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S46" t="n">
-        <v>1680.642051151332</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="T46" t="n">
-        <v>1458.875435720859</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U46" t="n">
-        <v>1169.772568846502</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="V46" t="n">
-        <v>915.0880806406151</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="W46" t="n">
-        <v>625.6709106036544</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="X46" t="n">
-        <v>625.6709106036544</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y46" t="n">
-        <v>625.6709106036544</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>45.78351343583213</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157919</v>
+        <v>25.82445471157973</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>65.25087362574868</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>155.913488268995</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>119.2189151781687</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688971</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>35.91627445172475</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241562</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>2.738725912720952e-12</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>187.5697153957356</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921509</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>263.6129831010968</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>300.7579281643395</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270144</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>291.8270912888469</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.255751353302003</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>8.320893461114935</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>172.257380959489</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>47.12005533005305</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>94.35543628911073</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>83.32522828944181</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>187.5697153957354</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>36.92590990196458</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>36.24727954554613</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>69.34270184147189</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>277.2566436803266</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>82.47744725539809</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270136</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>179.9362540566314</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>114.9088639706378</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>58.67017993786811</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>33.50229141006233</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>231.8272380515738</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>12.84933751971292</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>187.6205372139426</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>268.8242079902143</v>
       </c>
       <c r="Y35" t="n">
-        <v>126.090039683816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.235404842365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>75.90496054965115</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>270.4601319683949</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>358.9881216799617</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>36.53172416510597</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>37.46498834091655</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>31.69161087551993</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>348.9504813049407</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>142.2354048423649</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>182.1177644282755</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>377.4871240781277</v>
+        <v>66.82121243943385</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.51520603370174</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>105.2833318990675</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792832.5431432901</v>
+        <v>792832.5431432902</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792832.5431432901</v>
+        <v>792832.5431432902</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792832.5431432902</v>
+        <v>792832.5431432901</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792832.5431432901</v>
+        <v>792832.54314329</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792832.5431432901</v>
+        <v>792832.5431432902</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792832.5431432901</v>
+        <v>792832.5431432903</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792832.5431432902</v>
+        <v>792832.5431432903</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792832.54314329</v>
+        <v>792832.5431432901</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792832.54314329</v>
+        <v>792832.5431432901</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="F2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="G2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651047</v>
       </c>
       <c r="H2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651051</v>
       </c>
       <c r="I2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="J2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="K2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.518765105</v>
       </c>
       <c r="L2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="M2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="N2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="O2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651046</v>
+        <v>409196.5187651047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739514</v>
+        <v>176672.6241739487</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819062</v>
+        <v>223886.309381909</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640835</v>
+        <v>41076.98154640775</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946792</v>
+        <v>54988.29121946854</v>
       </c>
       <c r="M3" t="n">
         <v>47552.2657934148</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="C4" t="n">
-        <v>200657.5583474225</v>
+        <v>200657.5583474232</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
@@ -26427,37 +26429,37 @@
         <v>9160.459137079168</v>
       </c>
       <c r="F4" t="n">
-        <v>9160.45913707919</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="G4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="H4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="I4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="J4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079184</v>
       </c>
       <c r="K4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="L4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="M4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="N4" t="n">
         <v>9160.459137079168</v>
       </c>
       <c r="O4" t="n">
-        <v>9160.45913707919</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="P4" t="n">
-        <v>9160.45913707919</v>
+        <v>9160.459137079208</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923125</v>
+        <v>75746.87167923103</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26494,7 +26496,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26503,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-499053.9885634358</v>
+        <v>-499053.9885634359</v>
       </c>
       <c r="C6" t="n">
-        <v>39548.00771796504</v>
+        <v>39548.0077179673</v>
       </c>
       <c r="D6" t="n">
-        <v>39074.70640471671</v>
+        <v>39074.70640471375</v>
       </c>
       <c r="E6" t="n">
-        <v>143656.7392494417</v>
+        <v>143656.7392494421</v>
       </c>
       <c r="F6" t="n">
+        <v>325729.7190666323</v>
+      </c>
+      <c r="G6" t="n">
+        <v>325729.719066632</v>
+      </c>
+      <c r="H6" t="n">
         <v>325729.7190666327</v>
-      </c>
-      <c r="G6" t="n">
-        <v>325729.7190666322</v>
-      </c>
-      <c r="H6" t="n">
-        <v>325729.7190666324</v>
       </c>
       <c r="I6" t="n">
         <v>325729.7190666324</v>
       </c>
       <c r="J6" t="n">
-        <v>256730.5646475184</v>
+        <v>256730.5646475182</v>
       </c>
       <c r="K6" t="n">
-        <v>284652.737520224</v>
+        <v>284652.7375202248</v>
       </c>
       <c r="L6" t="n">
-        <v>270741.4278471645</v>
+        <v>270741.4278471639</v>
       </c>
       <c r="M6" t="n">
-        <v>278177.4532732177</v>
+        <v>278177.4532732175</v>
       </c>
       <c r="N6" t="n">
+        <v>325729.7190666323</v>
+      </c>
+      <c r="O6" t="n">
         <v>325729.7190666324</v>
-      </c>
-      <c r="O6" t="n">
-        <v>325729.7190666323</v>
       </c>
       <c r="P6" t="n">
         <v>325729.7190666322</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908071</v>
+        <v>751.446789990805</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.317954891968</v>
+        <v>423.3179548919653</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26799,10 +26801,10 @@
         <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26814,7 +26816,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
@@ -26823,13 +26825,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213289</v>
+        <v>137.3917762213268</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267321</v>
+        <v>182.6181021267344</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904617</v>
+        <v>159.6040748904592</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080709</v>
+        <v>217.2668772080735</v>
       </c>
       <c r="E4" t="n">
         <v>190.8166233022536</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904617</v>
+        <v>159.6040748904594</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080711</v>
+        <v>217.2668772080735</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022536</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904617</v>
+        <v>159.6040748904592</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080709</v>
+        <v>217.2668772080735</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022536</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442037</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>232.2684027589836</v>
       </c>
       <c r="X2" t="n">
-        <v>238.7954439740817</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,10 +27472,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>110.0147064345882</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>90.99448425791337</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27585,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>56.42226238750132</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117122</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>215.3231692570512</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>171.5013717614017</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>88.8082361101502</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
         <v>251.1039815783922</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>134.4381136859344</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253653</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813375</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27758,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>47.40978620731531</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>87.16786349452779</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515234</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>255.2696512917925</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>294.2402168769261</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>149.3404140109763</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>77.61193515748712</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>103.015434981651</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053494</v>
+        <v>3.020891618053485</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339035</v>
+        <v>30.93770628339026</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050074</v>
+        <v>116.4629241050071</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677679</v>
+        <v>256.3943999677672</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599724</v>
+        <v>384.2687421599713</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159771</v>
+        <v>476.7193540159757</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285359</v>
+        <v>530.4421353285344</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383305</v>
+        <v>539.0252436383289</v>
       </c>
       <c r="O5" t="n">
-        <v>508.986252611311</v>
+        <v>508.9862526113095</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906153</v>
+        <v>434.4079907906141</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190745</v>
+        <v>326.2223097190735</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025529</v>
+        <v>189.7610831025524</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639406</v>
+        <v>68.83856774639386</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802918</v>
+        <v>13.22395305802914</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442794</v>
+        <v>0.2416713294442787</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546264</v>
+        <v>1.61631951054626</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395998</v>
+        <v>15.61024369395993</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328148</v>
+        <v>55.64959718328132</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433206</v>
+        <v>152.7067481433201</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499202</v>
+        <v>261.0001553499195</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876878</v>
+        <v>350.9469182876869</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449899</v>
+        <v>409.5385005449887</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345743</v>
+        <v>420.3777660345731</v>
       </c>
       <c r="O6" t="n">
-        <v>384.563528458786</v>
+        <v>384.5635284587849</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077336</v>
+        <v>308.6461353077327</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970986</v>
+        <v>206.321767697098</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633081</v>
+        <v>30.02242599633073</v>
       </c>
       <c r="T6" t="n">
-        <v>6.51490188680709</v>
+        <v>6.514901886807071</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.1063368099043592</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950636</v>
+        <v>1.355067981950632</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952475</v>
+        <v>12.04778623952472</v>
       </c>
       <c r="I7" t="n">
-        <v>40.7505898572064</v>
+        <v>40.75058985720629</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390994</v>
+        <v>95.80330632390967</v>
       </c>
       <c r="K7" t="n">
-        <v>157.434261902992</v>
+        <v>157.4342619029916</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165518</v>
+        <v>201.4616525165512</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706801</v>
+        <v>212.4130655706795</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379551</v>
+        <v>207.3623576379545</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488045</v>
+        <v>191.5326998488039</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170114</v>
+        <v>163.8893130170109</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886119</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843493</v>
+        <v>60.92878398843475</v>
       </c>
       <c r="S7" t="n">
-        <v>23.6151392854488</v>
+        <v>23.61513928544873</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879988</v>
+        <v>5.789835922879971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548931</v>
+        <v>0.0739127990154891</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32105,7 +32107,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32154,16 +32156,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32172,19 +32174,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33266,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33898,7 +33900,7 @@
         <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623177</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
         <v>769.2673490574992</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34238,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34287,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34305,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34390,7 +34392,7 @@
         <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806946</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>121.2219182534626</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015063</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108164</v>
+        <v>75.3484954410809</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149919</v>
+        <v>164.1788911149907</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459899</v>
+        <v>240.9529390459885</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012632</v>
+        <v>300.0959021012617</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417396</v>
+        <v>309.612180041738</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896242</v>
+        <v>278.8880411896228</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353458</v>
+        <v>203.1749950353445</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.916619844625</v>
+        <v>103.916619844624</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>91.11999510240256</v>
+        <v>25.86912147665342</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755613</v>
+        <v>123.1587163755605</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078136</v>
+        <v>212.3925385078127</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229715</v>
+        <v>423.3179548919653</v>
       </c>
       <c r="N6" t="n">
-        <v>289.036053951241</v>
+        <v>289.0360539512398</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143415</v>
+        <v>241.9672840143405</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934034</v>
+        <v>174.6717278934025</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469262</v>
+        <v>185.5589087892452</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1957579144308284</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237161</v>
+        <v>2.444126207236891</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771092</v>
+        <v>135.1647700771087</v>
       </c>
       <c r="L7" t="n">
-        <v>229.051677776868</v>
+        <v>229.0516777768674</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325206</v>
+        <v>251.9969425325201</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171837</v>
+        <v>251.4945300171831</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628441</v>
+        <v>216.1178277628436</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819049</v>
+        <v>161.1678722819044</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691748</v>
+        <v>27.30642203691717</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>222.5037706952096</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620064</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36437,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36914,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923305</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1247642.613851989</v>
+        <v>1265260.063716068</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673261</v>
+        <v>4171427.157673264</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>130.9356567043871</v>
+      </c>
+      <c r="G2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12.83417464571001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>109.8280576942317</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,16 +743,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>2.875953774682731</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>97.997064871815</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,28 +819,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>117.2771711370694</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>162.9976728948466</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>288.829148322899</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.28184589708157</v>
+        <v>12.28184589708156</v>
       </c>
       <c r="H5" t="n">
-        <v>148.6476464830448</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398515</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>34.33927457972283</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>53.36575244266783</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>48.66381417901063</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>8.668565054221725</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>23.90655033973859</v>
       </c>
       <c r="H8" t="n">
-        <v>85.2209228581892</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>77.12665771331851</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>110.3838034696614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>166.103238031363</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>188.6059442291526</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>7.601081015447026</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>4.792004777350781</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>61.26635328439207</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>63.28280651916139</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951283</v>
       </c>
     </row>
     <row r="17">
@@ -1849,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1897,22 +1897,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>209.6931219609845</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>89.86676627008379</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>58.40943379163104</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>60.73190297294755</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,16 +2086,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>70.51113862850764</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>57.92518451681239</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.380068175847845</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.4425172951288</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>280.3840936224886</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>71.67037196991727</v>
+        <v>126.3633375179417</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>121.0389903687767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>252.1815824390015</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>120.456149636534</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>8.559242828906296</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>317.1191748890786</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>156.8137971778765</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>60.77117397290288</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>97.68144828304875</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>205.0648930180103</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37.43118484789433</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>245.1452664640285</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>199.7325946875385</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>245.2748112147388</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>249.0758435056896</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>289.8681104214131</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>160.0317554412384</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>80.5079694290857</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>171.290008215027</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>315.886784946231</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3799,7 +3799,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>66.12438285013813</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3918,7 +3918,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>76.28179528121042</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>76.07834618145914</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>403.1125486016011</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>357.5172482913114</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.9546880028684</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>149.8657877346415</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423.8554133656</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="C2" t="n">
-        <v>423.8554133656</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133656</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>943.9180879916491</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>690.233069932778</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>690.233069932778</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W2" t="n">
-        <v>690.233069932778</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X2" t="n">
-        <v>690.233069932778</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y2" t="n">
-        <v>690.233069932778</v>
+        <v>686.1106626298169</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787.653248772002</v>
+        <v>198.4551434940583</v>
       </c>
       <c r="C3" t="n">
-        <v>613.200219490875</v>
+        <v>24.00211421293133</v>
       </c>
       <c r="D3" t="n">
-        <v>464.2658098296238</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
         <v>21.09711040012049</v>
@@ -4412,19 +4412,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>782.2822794846131</v>
       </c>
       <c r="X3" t="n">
-        <v>1054.855520006025</v>
+        <v>574.4307792790803</v>
       </c>
       <c r="Y3" t="n">
-        <v>955.86858579207</v>
+        <v>366.6704805141264</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>618.522566969898</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="C4" t="n">
-        <v>449.5863840419911</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="D4" t="n">
-        <v>449.5863840419911</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="E4" t="n">
-        <v>301.673290459598</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>154.7833429616876</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>154.7833429616876</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001377</v>
+        <v>761.4188778055088</v>
       </c>
       <c r="W4" t="n">
-        <v>800.1710318001377</v>
+        <v>761.4188778055088</v>
       </c>
       <c r="X4" t="n">
-        <v>800.1710318001377</v>
+        <v>533.4293269074915</v>
       </c>
       <c r="Y4" t="n">
-        <v>800.1710318001377</v>
+        <v>533.4293269074915</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>203.3659799487691</v>
+        <v>53.21684208710779</v>
       </c>
       <c r="C5" t="n">
-        <v>203.3659799487691</v>
+        <v>53.21684208710779</v>
       </c>
       <c r="D5" t="n">
-        <v>203.3659799487691</v>
+        <v>53.21684208710779</v>
       </c>
       <c r="E5" t="n">
-        <v>203.3659799487691</v>
+        <v>53.21684208710779</v>
       </c>
       <c r="F5" t="n">
-        <v>196.4204791995656</v>
+        <v>46.27134133790432</v>
       </c>
       <c r="G5" t="n">
-        <v>184.0145742530186</v>
+        <v>33.86543639135729</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135729</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135729</v>
       </c>
       <c r="J5" t="n">
         <v>108.4604468780274</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818682</v>
+        <v>270.997549081869</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373965</v>
+        <v>509.540958737398</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176452</v>
+        <v>806.6359018176472</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058966</v>
+        <v>1113.151960058968</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836692</v>
+        <v>1389.251120836695</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921683</v>
+        <v>1590.394365921686</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961951</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.674342961951</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="U5" t="n">
-        <v>1298.033957529231</v>
+        <v>1439.631434135145</v>
       </c>
       <c r="V5" t="n">
-        <v>966.9710701856608</v>
+        <v>1108.568546791574</v>
       </c>
       <c r="W5" t="n">
-        <v>966.9710701856608</v>
+        <v>1108.568546791574</v>
       </c>
       <c r="X5" t="n">
-        <v>593.5053119245808</v>
+        <v>735.1027885304943</v>
       </c>
       <c r="Y5" t="n">
-        <v>203.3659799487691</v>
+        <v>344.9634565546826</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800.1230677594418</v>
+        <v>391.9390112728495</v>
       </c>
       <c r="C6" t="n">
-        <v>625.6700384783148</v>
+        <v>217.4859819917225</v>
       </c>
       <c r="D6" t="n">
-        <v>476.7356288170635</v>
+        <v>68.55157233047126</v>
       </c>
       <c r="E6" t="n">
-        <v>317.498173811608</v>
+        <v>33.86543639135729</v>
       </c>
       <c r="F6" t="n">
-        <v>170.963615838493</v>
+        <v>33.86543639135729</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135729</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135729</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135729</v>
       </c>
       <c r="J6" t="n">
-        <v>184.3059916402489</v>
+        <v>124.0742315427335</v>
       </c>
       <c r="K6" t="n">
-        <v>306.2331208520538</v>
+        <v>246.0013607545386</v>
       </c>
       <c r="L6" t="n">
-        <v>516.5017339747883</v>
+        <v>456.2699738772733</v>
       </c>
       <c r="M6" t="n">
-        <v>781.232155931529</v>
+        <v>721.0003958340142</v>
       </c>
       <c r="N6" t="n">
-        <v>1067.377849343256</v>
+        <v>1007.146089245742</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.925460517453</v>
+        <v>1246.693700419939</v>
       </c>
       <c r="P6" t="n">
-        <v>1479.850471131922</v>
+        <v>1419.618711034408</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232575</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S6" t="n">
-        <v>1639.367019120722</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.367019120722</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="U6" t="n">
-        <v>1411.250811776206</v>
+        <v>1465.155612223348</v>
       </c>
       <c r="V6" t="n">
-        <v>1176.098703544464</v>
+        <v>1230.003503991606</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.098703544464</v>
+        <v>975.7661472634043</v>
       </c>
       <c r="X6" t="n">
-        <v>1176.098703544464</v>
+        <v>767.9146470578714</v>
       </c>
       <c r="Y6" t="n">
-        <v>968.3384047795098</v>
+        <v>560.1543482929176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>816.0404022124166</v>
+        <v>521.2373611321132</v>
       </c>
       <c r="C7" t="n">
-        <v>647.1042192845097</v>
+        <v>352.3011782042063</v>
       </c>
       <c r="D7" t="n">
-        <v>496.987579872174</v>
+        <v>202.1845387918706</v>
       </c>
       <c r="E7" t="n">
-        <v>349.0744862897809</v>
+        <v>202.1845387918706</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1845387918705</v>
+        <v>202.1845387918706</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135729</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135729</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135729</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652175</v>
+        <v>36.28512133652186</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128594</v>
+        <v>170.0982437128596</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119581</v>
+        <v>396.8594047119584</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191529</v>
+        <v>646.3363778191533</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361642</v>
+        <v>895.3159625361648</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021379</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580465</v>
+        <v>1268.828805580466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.862163397013</v>
+        <v>1246.706795539427</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.862163397013</v>
+        <v>957.5703141682397</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.862163397013</v>
+        <v>702.8858259623529</v>
       </c>
       <c r="W7" t="n">
-        <v>1006.444993360052</v>
+        <v>702.8858259623529</v>
       </c>
       <c r="X7" t="n">
-        <v>997.6888670426563</v>
+        <v>702.8858259623529</v>
       </c>
       <c r="Y7" t="n">
-        <v>997.6888670426563</v>
+        <v>702.8858259623529</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.181083656475</v>
+        <v>1113.627677512999</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.181083656475</v>
+        <v>744.6651605725874</v>
       </c>
       <c r="D8" t="n">
-        <v>1416.181083656475</v>
+        <v>386.3994619658369</v>
       </c>
       <c r="E8" t="n">
-        <v>1030.392831058231</v>
+        <v>386.3994619658369</v>
       </c>
       <c r="F8" t="n">
-        <v>619.406926268623</v>
+        <v>379.4539612166334</v>
       </c>
       <c r="G8" t="n">
-        <v>203.7021759929119</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656475</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.181083656475</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1416.181083656475</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4883,28 +4883,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380228</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694945</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>910.9948295422085</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>742.0586466143017</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>591.9420072019659</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>444.0289136195728</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>297.1389661216624</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>129.152501429941</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>129.152501429941</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1524.947328691001</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1235.53015865404</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>1092.643294372448</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1758.295537883726</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1389.333020943314</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1031.067322336564</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>645.2790697383193</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>234.2931649487118</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923659</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.034709923659</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.034709923659</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y11" t="n">
-        <v>2144.895377947847</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
@@ -5117,49 +5117,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218343</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>74.18997604374607</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1308.370295943748</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C14" t="n">
-        <v>939.4077790033366</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>939.4077790033366</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>939.4077790033366</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>528.4218742137291</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>113.3494240587256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5296,10 +5296,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>423.5412774992677</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>423.5412774992677</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783663</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.740577577776</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W16" t="n">
-        <v>872.3234075408152</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X16" t="n">
-        <v>644.3338566427979</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.5412774992677</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1647.321240915451</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C17" t="n">
-        <v>1278.358723975039</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V17" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W17" t="n">
-        <v>2797.526171216464</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.060412955384</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y17" t="n">
-        <v>2033.921080979572</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,7 +5612,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>697.9541770656748</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C19" t="n">
-        <v>529.0179941377679</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,16 +5694,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U19" t="n">
         <v>1416.425065783662</v>
@@ -5712,13 +5712,13 @@
         <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>1161.740577577775</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X19" t="n">
-        <v>1100.395221039445</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.6026418959145</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1238.038871968309</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C20" t="n">
-        <v>869.0763550278978</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D20" t="n">
-        <v>510.8106564211473</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E20" t="n">
-        <v>125.022403822903</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
         <v>66.51211643218343</v>
@@ -5755,7 +5755,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5770,7 +5770,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.778044008243</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.638712032431</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D22" t="n">
         <v>66.51211643218343</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X22" t="n">
-        <v>452.6479724696239</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y22" t="n">
-        <v>248.1605812624231</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1892.184635123826</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1523.222118183415</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1164.956419576664</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>779.1681669784198</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218343</v>
@@ -5989,10 +5989,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6004,7 +6004,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6022,19 +6022,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W23" t="n">
-        <v>3042.389565424839</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X23" t="n">
-        <v>2668.92380716376</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>2278.784475187948</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.3679798527295</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218343</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1854.900232967364</v>
+        <v>1607.968929048711</v>
       </c>
       <c r="U25" t="n">
-        <v>1854.900232967364</v>
+        <v>1318.866062174355</v>
       </c>
       <c r="V25" t="n">
-        <v>1600.215744761477</v>
+        <v>1064.181573968468</v>
       </c>
       <c r="W25" t="n">
-        <v>1310.798574724517</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="X25" t="n">
-        <v>1082.809023826499</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0164446829692</v>
+        <v>774.7644039315074</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1811.579746109089</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C26" t="n">
-        <v>1442.617229168678</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218343</v>
@@ -6262,16 +6262,16 @@
         <v>2961.784676410103</v>
       </c>
       <c r="V26" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W26" t="n">
-        <v>2961.784676410103</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X26" t="n">
-        <v>2588.318918149023</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y26" t="n">
-        <v>2198.179586173211</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="27">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
         <v>381.1049005553748</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V28" t="n">
-        <v>1259.157560278958</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W28" t="n">
-        <v>1250.51186045178</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.51186045178</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1204.726236768953</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C29" t="n">
-        <v>835.7637198285415</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D29" t="n">
-        <v>477.498021221791</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218342</v>
+        <v>684.4181157012733</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6463,10 +6463,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2707.699822340081</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>2354.931167069967</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X29" t="n">
-        <v>1981.465408808887</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>1591.326076833075</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>443.0505103572859</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C31" t="n">
-        <v>274.114327429379</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D31" t="n">
-        <v>274.114327429379</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E31" t="n">
-        <v>274.114327429379</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F31" t="n">
-        <v>274.114327429379</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218342</v>
@@ -6657,16 +6657,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>845.4915543310558</v>
+        <v>781.5561065832925</v>
       </c>
       <c r="X31" t="n">
-        <v>845.4915543310558</v>
+        <v>553.5665556852751</v>
       </c>
       <c r="Y31" t="n">
-        <v>624.6989751875257</v>
+        <v>332.773976541745</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1934.208022973022</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3008.178897562519</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V32" t="n">
-        <v>2677.116010218948</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W32" t="n">
-        <v>2324.347354948834</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X32" t="n">
-        <v>2324.347354948834</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y32" t="n">
-        <v>1934.208022973022</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>812.5736815556431</v>
+        <v>793.5839474470786</v>
       </c>
       <c r="C34" t="n">
-        <v>812.5736815556431</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D34" t="n">
-        <v>662.4570421433074</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E34" t="n">
         <v>624.6477645191717</v>
@@ -6855,7 +6855,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1356.675339798491</v>
+        <v>1457.906451381222</v>
       </c>
       <c r="V34" t="n">
-        <v>1101.990851592604</v>
+        <v>1203.221963175336</v>
       </c>
       <c r="W34" t="n">
-        <v>812.5736815556431</v>
+        <v>1203.221963175336</v>
       </c>
       <c r="X34" t="n">
-        <v>812.5736815556431</v>
+        <v>975.2324122773183</v>
       </c>
       <c r="Y34" t="n">
-        <v>812.5736815556431</v>
+        <v>975.2324122773183</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1381.278680221568</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C35" t="n">
-        <v>1012.316163281156</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>654.0504646744059</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>268.2622120761617</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>268.2622120761617</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
@@ -6940,13 +6940,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792696</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W35" t="n">
-        <v>2531.483610522581</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X35" t="n">
-        <v>2158.017852261502</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y35" t="n">
-        <v>1767.87852028569</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>796.8106393615039</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C37" t="n">
-        <v>627.8744564335971</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1450.843444452132</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1199.251683335274</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>1199.251683335274</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>978.4591041917437</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1514.348043559526</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410103</v>
+        <v>3163.957583789738</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066532</v>
+        <v>3163.957583789738</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796418</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X38" t="n">
-        <v>1904.487375535338</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y38" t="n">
-        <v>1514.348043559526</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.4317969248226</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124869</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7362,22 +7362,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1754.274337770284</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1465.171470895927</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>1210.48698269004</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>921.0698126530797</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X40" t="n">
-        <v>693.0802617550623</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.0802617550623</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1186.041037313967</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="C41" t="n">
-        <v>817.078520373555</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="D41" t="n">
-        <v>817.078520373555</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>817.078520373555</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2689.014622885094</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W41" t="n">
-        <v>2336.24596761498</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X41" t="n">
-        <v>1962.7802093539</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y41" t="n">
-        <v>1572.640877378088</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>825.3518203322459</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C43" t="n">
-        <v>825.3518203322459</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2351809199101</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E43" t="n">
-        <v>527.322087337517</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1658.55634544945</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1369.453478575093</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V43" t="n">
-        <v>1114.768990369206</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W43" t="n">
-        <v>825.3518203322459</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X43" t="n">
-        <v>825.3518203322459</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y43" t="n">
-        <v>825.3518203322459</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1617.939223126803</v>
+        <v>1639.433183287317</v>
       </c>
       <c r="C44" t="n">
-        <v>1617.939223126803</v>
+        <v>1270.470666346905</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1270.470666346905</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>884.6824137486608</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>473.6965089590532</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V44" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W44" t="n">
-        <v>2755.806928794324</v>
+        <v>2403.038273524208</v>
       </c>
       <c r="X44" t="n">
-        <v>2394.678395166736</v>
+        <v>2029.572515263128</v>
       </c>
       <c r="Y44" t="n">
-        <v>2004.539063190924</v>
+        <v>1639.433183287317</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>700.1577228956174</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C46" t="n">
-        <v>531.2215399677106</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D46" t="n">
-        <v>381.1049005553748</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="E46" t="n">
-        <v>381.1049005553748</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1584.229080344974</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.011591242373</v>
+        <v>1295.126213470618</v>
       </c>
       <c r="V46" t="n">
-        <v>1169.327103036486</v>
+        <v>1040.441725264731</v>
       </c>
       <c r="W46" t="n">
-        <v>879.9099329995249</v>
+        <v>1040.441725264731</v>
       </c>
       <c r="X46" t="n">
-        <v>879.9099329995249</v>
+        <v>812.4521743667135</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.9099329995249</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127278</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157973</v>
+        <v>25.82445471157962</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>65.25087362574669</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>149.0413681067548</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>45.32591189688993</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>240.4465442417442</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>-1.84741111297626e-12</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>244.8184876220904</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>181.1251564493164</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>137.1539338988738</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>289.8157596099697</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>324.9715853716615</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>85.33266649905096</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16.14213605696645</v>
       </c>
     </row>
     <row r="17">
@@ -23737,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>139.5478467564285</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>296.3711723859698</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>121.4225463903063</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>164.9777524160896</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>284.1719029921753</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>348.950861224899</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24262,13 +24262,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>82.87935969080434</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>68.85687509492436</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>147.8785773062519</v>
+        <v>93.18561175822748</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>233.6440512519063</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>117.5495182394675</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>59.37583054540329</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>277.9637555076847</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>93.80255076437487</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24733,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>170.9384612922584</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>105.2546342861253</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>188.8415500535422</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>45.93027894089167</v>
+        <v>124.4562894637311</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>109.0027777986748</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>41.06657174158443</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>211.189130965915</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>124.4562894637303</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>37.44715483090144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>75.40478134959449</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>90.96341651766355</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>68.10750358912665</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>48.25894106114217</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>38.79625667445191</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>261.6278756199968</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>143.2671539949588</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>149.631309207578</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>7.809177051852373</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>12.2138523871576</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.877292179068888</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>69.68316154152771</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792832.5431432903</v>
+        <v>792832.5431432901</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792832.5431432903</v>
+        <v>792832.5431432902</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792832.5431432903</v>
+        <v>792832.5431432904</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792832.5431432901</v>
+        <v>792832.5431432902</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792832.5431432903</v>
+        <v>792832.5431432902</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792832.5431432901</v>
+        <v>792832.54314329</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185704</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="E2" t="n">
+        <v>409196.5187651049</v>
+      </c>
+      <c r="F2" t="n">
         <v>409196.5187651048</v>
-      </c>
-      <c r="F2" t="n">
-        <v>409196.5187651049</v>
       </c>
       <c r="G2" t="n">
         <v>409196.5187651049</v>
@@ -26334,28 +26334,28 @@
         <v>409196.5187651048</v>
       </c>
       <c r="I2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="K2" t="n">
         <v>409196.5187651049</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>409196.5187651047</v>
+      </c>
+      <c r="M2" t="n">
         <v>409196.5187651049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>409196.5187651048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>409196.5187651049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>409196.5187651048</v>
       </c>
       <c r="N2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="O2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.518765105</v>
+        <v>409196.5187651047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739486</v>
+        <v>176672.6241739493</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.309381909</v>
+        <v>223886.3093819082</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.967965428979369e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640763</v>
+        <v>41076.98154640784</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946861</v>
+        <v>54988.29121946835</v>
       </c>
       <c r="M3" t="n">
         <v>47552.26579341491</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="C4" t="n">
-        <v>200657.5583474232</v>
+        <v>200657.558347423</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="E4" t="n">
-        <v>9160.459137079168</v>
+        <v>9160.459137079182</v>
       </c>
       <c r="F4" t="n">
         <v>9160.459137079168</v>
@@ -26459,7 +26459,7 @@
         <v>9160.459137079168</v>
       </c>
       <c r="P4" t="n">
-        <v>9160.459137079168</v>
+        <v>9160.459137079117</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923103</v>
+        <v>75746.87167923109</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-499053.9885634356</v>
+        <v>-499053.9885634355</v>
       </c>
       <c r="C6" t="n">
-        <v>39548.00771796718</v>
+        <v>39548.00771796674</v>
       </c>
       <c r="D6" t="n">
-        <v>39074.70640471375</v>
+        <v>39074.70640471482</v>
       </c>
       <c r="E6" t="n">
-        <v>140180.5499513807</v>
+        <v>143309.1203196358</v>
       </c>
       <c r="F6" t="n">
-        <v>322253.5297685711</v>
+        <v>325382.1001368262</v>
       </c>
       <c r="G6" t="n">
-        <v>322253.5297685715</v>
+        <v>325382.1001368263</v>
       </c>
       <c r="H6" t="n">
-        <v>322253.5297685712</v>
+        <v>325382.1001368259</v>
       </c>
       <c r="I6" t="n">
-        <v>322253.5297685713</v>
+        <v>325382.1001368262</v>
       </c>
       <c r="J6" t="n">
-        <v>253254.3753494573</v>
+        <v>256382.9457177122</v>
       </c>
       <c r="K6" t="n">
-        <v>281176.5482221636</v>
+        <v>284305.1185904184</v>
       </c>
       <c r="L6" t="n">
-        <v>267265.2385491027</v>
+        <v>270393.8089173578</v>
       </c>
       <c r="M6" t="n">
-        <v>274701.2639751564</v>
+        <v>277829.8343434114</v>
       </c>
       <c r="N6" t="n">
-        <v>322253.5297685713</v>
+        <v>325382.1001368262</v>
       </c>
       <c r="O6" t="n">
-        <v>322253.5297685713</v>
+        <v>325382.1001368262</v>
       </c>
       <c r="P6" t="n">
-        <v>322253.5297685714</v>
+        <v>325382.1001368262</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>751.446789990805</v>
+        <v>751.4467899908054</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26792,19 +26792,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919653</v>
+        <v>423.3179548919661</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
     </row>
   </sheetData>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213267</v>
+        <v>137.3917762213273</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267344</v>
+        <v>182.6181021267338</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904591</v>
+        <v>159.60407489046</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080736</v>
+        <v>217.2668772080728</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27038,10 +27038,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904589</v>
+        <v>159.6040748904597</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080738</v>
+        <v>217.2668772080728</v>
       </c>
       <c r="M4" t="n">
         <v>190.816623302254</v>
@@ -27260,13 +27260,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904591</v>
+        <v>159.60407489046</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080736</v>
+        <v>217.2668772080728</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>275.9403890373243</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>102.4616579089916</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>144.569111789956</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>107.6856309054894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>35.10498819878742</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27596,13 +27596,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>89.13997042898137</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>93.90469334058156</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>159.8894493493322</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539882</v>
+        <v>94.01296546539875</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>123.3058058756781</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253653</v>
+        <v>96.62520054253652</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813375</v>
+        <v>33.74703566813373</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>88.29499266483927</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
         <v>193.6498268080145</v>
@@ -27757,10 +27757,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>173.4919393263909</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>217.0410903348154</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>387.6411524332154</v>
       </c>
       <c r="H8" t="n">
-        <v>215.7976297042162</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>27.66993749058207</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>141.7538398541666</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053485</v>
+        <v>3.020891618053487</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339026</v>
+        <v>30.93770628339028</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050071</v>
+        <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677672</v>
+        <v>256.3943999677674</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599713</v>
+        <v>384.2687421599715</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159757</v>
+        <v>476.719354015976</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285344</v>
+        <v>530.4421353285347</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383289</v>
+        <v>539.0252436383292</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113095</v>
+        <v>508.9862526113099</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906141</v>
+        <v>434.4079907906143</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190735</v>
+        <v>326.2223097190737</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025524</v>
+        <v>189.7610831025525</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639386</v>
+        <v>68.83856774639391</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802914</v>
+        <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442787</v>
+        <v>0.2416713294442789</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61631951054626</v>
+        <v>1.616319510546261</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395993</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328132</v>
+        <v>55.64959718328135</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433201</v>
+        <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499195</v>
+        <v>261.0001553499197</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876869</v>
+        <v>350.946918287687</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449887</v>
+        <v>409.5385005449889</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345731</v>
+        <v>420.3777660345733</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587849</v>
+        <v>384.5635284587851</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077327</v>
+        <v>308.6461353077329</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.321767697098</v>
+        <v>206.3217676970982</v>
       </c>
       <c r="R6" t="n">
         <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633073</v>
+        <v>30.02242599633075</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807071</v>
+        <v>6.514901886807075</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043592</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950632</v>
+        <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
         <v>12.04778623952472</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720629</v>
+        <v>40.75058985720631</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390967</v>
+        <v>95.80330632390972</v>
       </c>
       <c r="K7" t="n">
         <v>157.4342619029916</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165512</v>
+        <v>201.4616525165514</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706795</v>
+        <v>212.4130655706796</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379545</v>
+        <v>207.3623576379547</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488039</v>
+        <v>191.532699848804</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170109</v>
+        <v>163.889313017011</v>
       </c>
       <c r="Q7" t="n">
         <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843475</v>
+        <v>60.92878398843479</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544873</v>
+        <v>23.61513928544874</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879971</v>
+        <v>5.789835922879974</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0739127990154891</v>
+        <v>0.07391279901548914</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,10 +33280,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.3484954410809</v>
+        <v>75.34849544108107</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149907</v>
+        <v>164.178891114991</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459885</v>
+        <v>240.9529390459888</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012617</v>
+        <v>300.095902101262</v>
       </c>
       <c r="N5" t="n">
-        <v>309.612180041738</v>
+        <v>309.6121800417383</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896228</v>
+        <v>278.8880411896231</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353445</v>
+        <v>203.1749950353448</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.916619844624</v>
+        <v>103.9166198446243</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.9601568170623</v>
+        <v>91.11999510240022</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755605</v>
+        <v>123.1587163755607</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078127</v>
+        <v>212.3925385078128</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229703</v>
+        <v>267.4044666229706</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512398</v>
+        <v>289.03605395124</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143405</v>
+        <v>241.9672840143407</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934025</v>
+        <v>174.6717278934027</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.3813617178313</v>
+        <v>276.4172813469257</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144308284</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236891</v>
+        <v>2.444126207236948</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771087</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768674</v>
+        <v>229.0516777768675</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325201</v>
+        <v>251.9969425325202</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171831</v>
+        <v>251.4945300171833</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628436</v>
+        <v>216.1178277628437</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819044</v>
+        <v>161.1678722819045</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691717</v>
+        <v>27.30642203691723</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313199</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>631.643643834618</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037176</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
